--- a/doc/AssembleurToBinary.xlsx
+++ b/doc/AssembleurToBinary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Bureau\Architecture Réseau\Archi\parm_projet\Parm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704C32B-39A3-49F0-A448-DA84DBCD7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B73F3D-C369-41B4-BEB7-4361C01DAE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52F928F6-F584-4B8F-99E8-A27485688B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +485,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,23 +591,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C26437-8916-498A-BD77-2326718A1D11}">
-  <dimension ref="A1:AM1041"/>
+  <dimension ref="A1:AM1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36:W36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,9 +1007,7 @@
       <c r="AM1" s="14"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1064,62 +1086,36 @@
       <c r="AM2" s="14"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="Y3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
@@ -1133,12 +1129,11 @@
       <c r="AM3" s="14"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9"/>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>92</v>
@@ -1161,26 +1156,26 @@
       <c r="K4" s="15">
         <v>0</v>
       </c>
-      <c r="L4" s="16">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
       <c r="Y4" s="8" t="s">
         <v>121</v>
       </c>
@@ -1204,11 +1199,11 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>92</v>
@@ -1228,29 +1223,29 @@
       <c r="J5" s="15">
         <v>0</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18" t="s">
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
       <c r="Y5" s="8" t="s">
         <v>121</v>
       </c>
@@ -1274,20 +1269,20 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -1301,30 +1296,26 @@
       <c r="K6" s="16">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18" t="s">
+      <c r="M6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18" t="s">
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="Y6" s="8" t="s">
         <v>121</v>
       </c>
@@ -1332,9 +1323,6 @@
         <v>121</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB6" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AC6" s="14"/>
@@ -1351,11 +1339,11 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>92</v>
@@ -1384,24 +1372,24 @@
       <c r="M7" s="15">
         <v>0</v>
       </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
       <c r="Y7" s="8" t="s">
         <v>121</v>
       </c>
@@ -1428,11 +1416,11 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>92</v>
@@ -1441,7 +1429,7 @@
         <v>95</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -1458,27 +1446,27 @@
       <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
         <v>1</v>
       </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18" t="s">
+      <c r="O8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
       <c r="Y8" s="8" t="s">
         <v>121</v>
       </c>
@@ -1505,11 +1493,11 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>92</v>
@@ -1538,24 +1526,24 @@
       <c r="M9" s="16">
         <v>1</v>
       </c>
-      <c r="N9" s="16">
-        <v>1</v>
-      </c>
-      <c r="O9" s="18" t="s">
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18" t="s">
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
       <c r="Y9" s="8" t="s">
         <v>121</v>
       </c>
@@ -1582,49 +1570,57 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="H10" s="15">
         <v>0</v>
       </c>
       <c r="I10" s="15">
         <v>0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
       <c r="Y10" s="8" t="s">
         <v>121</v>
       </c>
@@ -1632,6 +1628,9 @@
         <v>121</v>
       </c>
       <c r="AA10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AC10" s="14"/>
@@ -1648,11 +1647,11 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>92</v>
@@ -1673,24 +1672,24 @@
       <c r="K11" s="15">
         <v>0</v>
       </c>
-      <c r="L11" s="16">
-        <v>1</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
       <c r="Y11" s="8" t="s">
         <v>121</v>
       </c>
@@ -1698,9 +1697,6 @@
         <v>121</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB11" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AC11" s="14"/>
@@ -1715,16 +1711,16 @@
       <c r="AL11" s="14"/>
       <c r="AM11" s="14"/>
     </row>
-    <row r="12" spans="1:39" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>97</v>
@@ -1739,27 +1735,27 @@
       <c r="J12" s="16">
         <v>1</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
         <v>1</v>
       </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
       <c r="Y12" s="8" t="s">
         <v>121</v>
       </c>
@@ -1786,59 +1782,61 @@
     </row>
     <row r="13" spans="1:39" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="H13" s="15">
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26">
         <v>0</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="26">
         <v>0</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="27">
         <v>1</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="27">
         <v>1</v>
       </c>
-      <c r="L13" s="16">
-        <v>1</v>
-      </c>
-      <c r="M13" s="18" t="s">
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18" t="s">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="Y13" s="8" t="s">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AA13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AB13" s="24" t="s">
         <v>121</v>
       </c>
       <c r="AC13" s="14"/>
@@ -1853,37 +1851,65 @@
       <c r="AL13" s="14"/>
       <c r="AM13" s="14"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+    <row r="14" spans="1:39" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
@@ -1897,69 +1923,36 @@
       <c r="AM14" s="14"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="Y15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>0</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
@@ -1973,11 +1966,12 @@
       <c r="AM15" s="14"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>98</v>
@@ -2013,19 +2007,19 @@
       <c r="P16" s="15">
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="18" t="s">
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18" t="s">
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
       <c r="Y16" s="8" t="s">
         <v>121</v>
       </c>
@@ -2049,10 +2043,10 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>98</v>
@@ -2085,30 +2079,30 @@
       <c r="O17" s="15">
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
         <v>1</v>
       </c>
-      <c r="Q17" s="15">
-        <v>0</v>
-      </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18" t="s">
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
       <c r="Y17" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>121</v>
+      <c r="AA17" s="15">
+        <v>0</v>
       </c>
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
@@ -2124,13 +2118,13 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>93</v>
@@ -2163,19 +2157,19 @@
       <c r="P18" s="16">
         <v>1</v>
       </c>
-      <c r="Q18" s="16">
-        <v>1</v>
-      </c>
-      <c r="R18" s="18" t="s">
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18" t="s">
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
       <c r="Y18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2199,13 +2193,13 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>93</v>
@@ -2232,25 +2226,25 @@
       <c r="N19" s="15">
         <v>0</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
         <v>1</v>
       </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>0</v>
-      </c>
-      <c r="R19" s="18" t="s">
+      <c r="Q19" s="16">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18" t="s">
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
       <c r="Y19" s="8" t="s">
         <v>121</v>
       </c>
@@ -2274,10 +2268,10 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>98</v>
@@ -2313,19 +2307,19 @@
       <c r="P20" s="15">
         <v>0</v>
       </c>
-      <c r="Q20" s="16">
-        <v>1</v>
-      </c>
-      <c r="R20" s="18" t="s">
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18" t="s">
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
       <c r="Y20" s="8" t="s">
         <v>121</v>
       </c>
@@ -2333,9 +2327,6 @@
         <v>121</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB20" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AC20" s="14"/>
@@ -2352,10 +2343,10 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>98</v>
@@ -2388,22 +2379,22 @@
       <c r="O21" s="16">
         <v>1</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
         <v>1</v>
       </c>
-      <c r="Q21" s="15">
-        <v>0</v>
-      </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18" t="s">
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
       <c r="Y21" s="8" t="s">
         <v>121</v>
       </c>
@@ -2430,10 +2421,10 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>98</v>
@@ -2469,19 +2460,19 @@
       <c r="P22" s="16">
         <v>1</v>
       </c>
-      <c r="Q22" s="16">
-        <v>1</v>
-      </c>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18" t="s">
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
       <c r="Y22" s="8" t="s">
         <v>121</v>
       </c>
@@ -2489,6 +2480,9 @@
         <v>121</v>
       </c>
       <c r="AA22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB22" s="8" t="s">
         <v>121</v>
       </c>
       <c r="AC22" s="14"/>
@@ -2505,13 +2499,13 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>93</v>
@@ -2535,36 +2529,36 @@
       <c r="M23" s="15">
         <v>0</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16">
         <v>1</v>
       </c>
-      <c r="O23" s="15">
-        <v>0</v>
-      </c>
-      <c r="P23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="18" t="s">
+      <c r="P23" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="R23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
       <c r="Y23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AA23" s="15">
-        <v>0</v>
+      <c r="AA23" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="AC23" s="14"/>
       <c r="AD23" s="14"/>
@@ -2580,20 +2574,18 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>100</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="H24" s="15">
         <v>0</v>
       </c>
@@ -2621,30 +2613,27 @@
       <c r="P24" s="15">
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="18" t="s">
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
       <c r="Y24" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>121</v>
+      <c r="AA24" s="15">
+        <v>0</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
@@ -2660,18 +2649,20 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="H25" s="15">
         <v>0</v>
       </c>
@@ -2696,22 +2687,22 @@
       <c r="O25" s="15">
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
         <v>1</v>
       </c>
-      <c r="Q25" s="15">
-        <v>0</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18" t="s">
+      <c r="R25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
       <c r="Y25" s="8" t="s">
         <v>121</v>
       </c>
@@ -2738,13 +2729,13 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>93</v>
@@ -2777,27 +2768,30 @@
       <c r="P26" s="16">
         <v>1</v>
       </c>
-      <c r="Q26" s="16">
-        <v>1</v>
-      </c>
-      <c r="R26" s="18" t="s">
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18" t="s">
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
       <c r="Y26" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AA26" s="15">
-        <v>0</v>
+      <c r="AA26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
@@ -2813,13 +2807,13 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>93</v>
@@ -2846,30 +2840,33 @@
       <c r="N27" s="16">
         <v>1</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
         <v>1</v>
       </c>
-      <c r="P27" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>0</v>
-      </c>
-      <c r="R27" s="18" t="s">
+      <c r="Q27" s="16">
+        <v>1</v>
+      </c>
+      <c r="R27" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
       <c r="Y27" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z27" s="8" t="s">
         <v>121</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0</v>
       </c>
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
@@ -2885,20 +2882,18 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="H28" s="15">
         <v>0</v>
       </c>
@@ -2926,27 +2921,24 @@
       <c r="P28" s="15">
         <v>0</v>
       </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
       <c r="Y28" s="8" t="s">
         <v>121</v>
       </c>
       <c r="Z28" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="AA28" s="15">
-        <v>0</v>
       </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
@@ -2962,18 +2954,20 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="H29" s="15">
         <v>0</v>
       </c>
@@ -2998,22 +2992,22 @@
       <c r="O29" s="16">
         <v>1</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
         <v>1</v>
       </c>
-      <c r="Q29" s="15">
-        <v>0</v>
-      </c>
-      <c r="R29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
+      <c r="R29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
       <c r="Y29" s="8" t="s">
         <v>121</v>
       </c>
@@ -3037,13 +3031,13 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>93</v>
@@ -3076,19 +3070,19 @@
       <c r="P30" s="16">
         <v>1</v>
       </c>
-      <c r="Q30" s="16">
-        <v>1</v>
-      </c>
-      <c r="R30" s="18" t="s">
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
       <c r="Y30" s="8" t="s">
         <v>121</v>
       </c>
@@ -3111,36 +3105,68 @@
       <c r="AM30" s="14"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>1</v>
+      </c>
+      <c r="O31" s="16">
+        <v>1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>1</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="Y31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>0</v>
+      </c>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
@@ -3154,51 +3180,36 @@
       <c r="AM31" s="14"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="16">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0</v>
-      </c>
-      <c r="J32" s="15">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>1</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
@@ -3213,10 +3224,10 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>103</v>
@@ -3239,24 +3250,24 @@
       <c r="K33" s="16">
         <v>1</v>
       </c>
-      <c r="L33" s="16">
-        <v>1</v>
-      </c>
-      <c r="M33" s="18" t="s">
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18" t="s">
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
@@ -3270,36 +3281,51 @@
       <c r="AM33" s="14"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
@@ -3313,55 +3339,36 @@
       <c r="AM34" s="14"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="H35" s="16">
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <v>1</v>
-      </c>
-      <c r="K35" s="16">
-        <v>1</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0</v>
-      </c>
-      <c r="O35" s="15">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
@@ -3376,10 +3383,10 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>104</v>
@@ -3412,18 +3419,18 @@
       <c r="O36" s="15">
         <v>0</v>
       </c>
-      <c r="P36" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="18" t="s">
+      <c r="P36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
@@ -3437,38 +3444,55 @@
       <c r="AM36" s="14"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="Y37" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="H37" s="16">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="K37" s="16">
+        <v>1</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
@@ -3482,57 +3506,38 @@
       <c r="AM37" s="14"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="H38" s="16">
-        <v>1</v>
-      </c>
-      <c r="I38" s="16">
-        <v>1</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>1</v>
-      </c>
-      <c r="L38" s="15">
-        <v>0</v>
-      </c>
-      <c r="M38" s="15">
-        <v>0</v>
-      </c>
-      <c r="N38" s="15">
-        <v>0</v>
-      </c>
-      <c r="O38" s="15">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="Y38" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="Y38" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
@@ -3547,10 +3552,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>106</v>
@@ -3578,25 +3583,25 @@
       <c r="N39" s="15">
         <v>0</v>
       </c>
-      <c r="O39" s="16">
-        <v>1</v>
-      </c>
-      <c r="P39" s="18" t="s">
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="Y39" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="Y39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
@@ -3611,10 +3616,10 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>106</v>
@@ -3639,28 +3644,28 @@
       <c r="M40" s="15">
         <v>0</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16">
         <v>1</v>
       </c>
-      <c r="O40" s="15">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18" t="s">
+      <c r="P40" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="Y40" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="Y40" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
       <c r="AE40" s="14"/>
@@ -3675,10 +3680,10 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>106</v>
@@ -3706,25 +3711,25 @@
       <c r="N41" s="16">
         <v>1</v>
       </c>
-      <c r="O41" s="16">
-        <v>1</v>
-      </c>
-      <c r="P41" s="18" t="s">
+      <c r="O41" s="15">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="Y41" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="Y41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="14"/>
@@ -3739,10 +3744,10 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>106</v>
@@ -3764,31 +3769,31 @@
       <c r="L42" s="15">
         <v>0</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="16">
         <v>1</v>
       </c>
-      <c r="N42" s="15">
-        <v>0</v>
-      </c>
-      <c r="O42" s="15">
-        <v>0</v>
-      </c>
-      <c r="P42" s="18" t="s">
+      <c r="O42" s="16">
+        <v>1</v>
+      </c>
+      <c r="P42" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="Y42" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="Y42" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
       <c r="AC42" s="14"/>
       <c r="AD42" s="14"/>
       <c r="AE42" s="14"/>
@@ -3803,10 +3808,10 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>106</v>
@@ -3834,25 +3839,25 @@
       <c r="N43" s="15">
         <v>0</v>
       </c>
-      <c r="O43" s="16">
-        <v>1</v>
-      </c>
-      <c r="P43" s="18" t="s">
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="Y43" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="Y43" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
@@ -3867,10 +3872,10 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>106</v>
@@ -3895,28 +3900,28 @@
       <c r="M44" s="16">
         <v>1</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="16">
         <v>1</v>
       </c>
-      <c r="O44" s="15">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="s">
+      <c r="P44" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="Y44" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="Y44" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
       <c r="AC44" s="14"/>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
@@ -3931,10 +3936,10 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>106</v>
@@ -3962,25 +3967,25 @@
       <c r="N45" s="16">
         <v>1</v>
       </c>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="18" t="s">
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="Y45" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="Y45" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
@@ -3995,10 +4000,10 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>106</v>
@@ -4017,34 +4022,34 @@
       <c r="K46" s="16">
         <v>1</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
         <v>1</v>
       </c>
-      <c r="M46" s="15">
-        <v>0</v>
-      </c>
-      <c r="N46" s="15">
-        <v>0</v>
-      </c>
-      <c r="O46" s="15">
-        <v>0</v>
-      </c>
-      <c r="P46" s="18" t="s">
+      <c r="N46" s="16">
+        <v>1</v>
+      </c>
+      <c r="O46" s="16">
+        <v>1</v>
+      </c>
+      <c r="P46" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="Y46" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="Y46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
       <c r="AC46" s="14"/>
       <c r="AD46" s="14"/>
       <c r="AE46" s="14"/>
@@ -4059,10 +4064,10 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>106</v>
@@ -4090,25 +4095,25 @@
       <c r="N47" s="15">
         <v>0</v>
       </c>
-      <c r="O47" s="16">
-        <v>1</v>
-      </c>
-      <c r="P47" s="18" t="s">
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="Y47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="Y47" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
       <c r="AE47" s="14"/>
@@ -4123,10 +4128,10 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>106</v>
@@ -4151,28 +4156,28 @@
       <c r="M48" s="15">
         <v>0</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N48" s="15">
+        <v>0</v>
+      </c>
+      <c r="O48" s="16">
         <v>1</v>
       </c>
-      <c r="O48" s="15">
-        <v>0</v>
-      </c>
-      <c r="P48" s="18" t="s">
+      <c r="P48" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="Y48" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="Y48" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
@@ -4187,10 +4192,10 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>106</v>
@@ -4218,25 +4223,25 @@
       <c r="N49" s="16">
         <v>1</v>
       </c>
-      <c r="O49" s="16">
-        <v>1</v>
-      </c>
-      <c r="P49" s="18" t="s">
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="Y49" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="Y49" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
       <c r="AC49" s="14"/>
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
@@ -4251,10 +4256,10 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>106</v>
@@ -4276,31 +4281,31 @@
       <c r="L50" s="16">
         <v>1</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="16">
         <v>1</v>
       </c>
-      <c r="N50" s="15">
-        <v>0</v>
-      </c>
-      <c r="O50" s="15">
-        <v>0</v>
-      </c>
-      <c r="P50" s="18" t="s">
+      <c r="O50" s="16">
+        <v>1</v>
+      </c>
+      <c r="P50" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="Y50" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="Y50" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
       <c r="AC50" s="14"/>
       <c r="AD50" s="14"/>
       <c r="AE50" s="14"/>
@@ -4315,10 +4320,10 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>106</v>
@@ -4346,25 +4351,25 @@
       <c r="N51" s="15">
         <v>0</v>
       </c>
-      <c r="O51" s="16">
-        <v>1</v>
-      </c>
-      <c r="P51" s="18" t="s">
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="Y51" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="Y51" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
       <c r="AC51" s="14"/>
       <c r="AD51" s="14"/>
       <c r="AE51" s="14"/>
@@ -4379,10 +4384,10 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>106</v>
@@ -4407,26 +4412,28 @@
       <c r="M52" s="16">
         <v>1</v>
       </c>
-      <c r="N52" s="16">
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
         <v>1</v>
       </c>
-      <c r="O52" s="15">
-        <v>0</v>
-      </c>
-      <c r="P52" s="18" t="s">
+      <c r="P52" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="Y52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
       <c r="AC52" s="14"/>
       <c r="AD52" s="14"/>
       <c r="AE52" s="14"/>
@@ -4441,10 +4448,10 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>106</v>
@@ -4457,32 +4464,38 @@
       <c r="I53" s="16">
         <v>1</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
         <v>1</v>
       </c>
-      <c r="K53" s="15">
+      <c r="L53" s="16">
+        <v>1</v>
+      </c>
+      <c r="M53" s="16">
+        <v>1</v>
+      </c>
+      <c r="N53" s="16">
+        <v>1</v>
+      </c>
+      <c r="O53" s="15">
         <v>0</v>
       </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
+      <c r="P53" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
       <c r="AC53" s="14"/>
       <c r="AD53" s="14"/>
       <c r="AE53" s="14"/>
@@ -4496,34 +4509,49 @@
       <c r="AM53" s="14"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="H54" s="16">
+        <v>1</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16">
+        <v>1</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
       <c r="AC54" s="14"/>
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
@@ -5672,6 +5700,17 @@
       <c r="Z82" s="14"/>
       <c r="AA82" s="14"/>
       <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="14"/>
+      <c r="AL82" s="14"/>
+      <c r="AM82" s="14"/>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
@@ -34443,103 +34482,46 @@
       <c r="AA1041" s="14"/>
       <c r="AB1041" s="14"/>
     </row>
+    <row r="1042" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1042" s="13"/>
+      <c r="B1042" s="13"/>
+      <c r="C1042" s="14"/>
+      <c r="D1042" s="14"/>
+      <c r="E1042" s="14"/>
+      <c r="F1042" s="14"/>
+      <c r="G1042" s="14"/>
+      <c r="H1042" s="14"/>
+      <c r="I1042" s="14"/>
+      <c r="J1042" s="14"/>
+      <c r="K1042" s="14"/>
+      <c r="L1042" s="14"/>
+      <c r="M1042" s="14"/>
+      <c r="N1042" s="14"/>
+      <c r="O1042" s="14"/>
+      <c r="P1042" s="14"/>
+      <c r="Q1042" s="14"/>
+      <c r="R1042" s="14"/>
+      <c r="S1042" s="14"/>
+      <c r="T1042" s="14"/>
+      <c r="U1042" s="14"/>
+      <c r="V1042" s="14"/>
+      <c r="W1042" s="14"/>
+      <c r="X1042" s="14"/>
+      <c r="Y1042" s="14"/>
+      <c r="Z1042" s="14"/>
+      <c r="AA1042" s="14"/>
+      <c r="AB1042" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="P13:W13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="P12:W12"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:W32"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:W33"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:W1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="M53:W53"/>
-    <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="P40:W40"/>
-    <mergeCell ref="P41:W41"/>
-    <mergeCell ref="P42:W42"/>
-    <mergeCell ref="P43:W43"/>
-    <mergeCell ref="P44:W44"/>
-    <mergeCell ref="P45:W45"/>
-    <mergeCell ref="P46:W46"/>
-    <mergeCell ref="P47:W47"/>
-    <mergeCell ref="P48:W48"/>
-    <mergeCell ref="P49:W49"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="J3:N3"/>
     <mergeCell ref="Y51:AB51"/>
     <mergeCell ref="Y52:AB52"/>
     <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="P50:W50"/>
+    <mergeCell ref="Y54:AB54"/>
     <mergeCell ref="P51:W51"/>
     <mergeCell ref="P52:W52"/>
-    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="P53:W53"/>
     <mergeCell ref="Y38:AB38"/>
     <mergeCell ref="Y39:AB39"/>
     <mergeCell ref="Y40:AB40"/>
@@ -34552,6 +34534,93 @@
     <mergeCell ref="Y47:AB47"/>
     <mergeCell ref="Y48:AB48"/>
     <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="M54:W54"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="P41:W41"/>
+    <mergeCell ref="P42:W42"/>
+    <mergeCell ref="P43:W43"/>
+    <mergeCell ref="P44:W44"/>
+    <mergeCell ref="P45:W45"/>
+    <mergeCell ref="P46:W46"/>
+    <mergeCell ref="P47:W47"/>
+    <mergeCell ref="P48:W48"/>
+    <mergeCell ref="P49:W49"/>
+    <mergeCell ref="P50:W50"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:W33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:W34"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:W1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="P11:W11"/>
+    <mergeCell ref="P12:W12"/>
+    <mergeCell ref="P13:W13"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="P14:W14"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="R28:T28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
